--- a/kittyserver/gametools/parseExcelTool/Excel/StarSpend.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/StarSpend.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,26 +131,6 @@
   </si>
   <si>
     <t>2_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +520,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -681,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -695,10 +675,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -709,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -723,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -751,10 +731,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
@@ -765,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
